--- a/_content/training/2024/trainingsuren-2024-2025.xlsx
+++ b/_content/training/2024/trainingsuren-2024-2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan Coenen\Documents\Stefan\Documents\Basket\Basket 2024-2025\trainingsuren 2425\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82DB7EA-281A-4C2B-9D64-9AC7C800B03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60658DE8-CEAF-436D-A39F-ADA5F7318860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Maandag" sheetId="1" r:id="rId1"/>
@@ -787,7 +787,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -883,6 +883,115 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -906,112 +1015,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1175,6 +1178,54 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="hh:mm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1196,9 +1247,8 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1233,8 +1283,9 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <color auto="1"/>
-        <name val="Verdana"/>
-        <scheme val="none"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1377,54 +1428,6 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="hh:mm"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Verdana"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Verdana"/>
-        <scheme val="none"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2334,19 +2337,19 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabel1816" displayName="Tabel1816" ref="A2:F13" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Donderdag" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Vijfsprong 1" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Vijfsprong 2" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Vijfsprong 3" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="SPECTRUM" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{80CBEE65-E0FD-4E50-809C-4BB9B9C22ECC}" name=" " dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Donderdag" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Vijfsprong 1" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Vijfsprong 2" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Vijfsprong 3" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="SPECTRUM" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{80CBEE65-E0FD-4E50-809C-4BB9B9C22ECC}" name=" " dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabel11017" displayName="Tabel11017" ref="A2:E14" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabel11017" displayName="Tabel11017" ref="A2:E14" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Vrijdag" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Vijfsprong 1" dataDxfId="3"/>
@@ -2647,8 +2650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2664,17 +2667,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35" t="s">
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="37"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="74"/>
     </row>
     <row r="2" spans="1:13" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -2709,12 +2712,12 @@
       <c r="B3" s="10"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="64" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="67"/>
+      <c r="H3" s="59"/>
       <c r="M3" s="18"/>
     </row>
     <row r="4" spans="1:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2729,26 +2732,26 @@
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="67"/>
+      <c r="H4" s="59"/>
       <c r="M4" s="19"/>
     </row>
     <row r="5" spans="1:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="43" t="s">
+      <c r="B5" s="60"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="43" t="s">
+      <c r="H5" s="35" t="s">
         <v>40</v>
       </c>
       <c r="M5" s="19"/>
@@ -2757,19 +2760,19 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="62" t="s">
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="35" t="s">
         <v>40</v>
       </c>
       <c r="M6" s="19"/>
@@ -2778,25 +2781,25 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="62" t="s">
+      <c r="E7" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="43" t="s">
+      <c r="H7" s="35" t="s">
         <v>40</v>
       </c>
       <c r="M7" s="19"/>
@@ -2805,40 +2808,40 @@
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="71" t="s">
+      <c r="D8" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
       <c r="M8" s="19"/>
     </row>
     <row r="9" spans="1:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="71" t="s">
+      <c r="D9" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
       <c r="M9" s="18"/>
     </row>
     <row r="10" spans="1:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2977,7 +2980,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2989,11 +2992,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
     </row>
     <row r="2" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -3021,23 +3024,23 @@
       <c r="A4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
     </row>
     <row r="5" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="35" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3045,13 +3048,13 @@
       <c r="A6" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="35" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3059,13 +3062,13 @@
       <c r="A7" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="35" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3073,13 +3076,13 @@
       <c r="A8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="35" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3087,13 +3090,13 @@
       <c r="A9" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="35" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3101,13 +3104,13 @@
       <c r="A10" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="54" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3115,13 +3118,13 @@
       <c r="A11" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="66" t="s">
+      <c r="D11" s="58" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3129,13 +3132,13 @@
       <c r="A12" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="58" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3143,13 +3146,13 @@
       <c r="A13" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="66" t="s">
+      <c r="D13" s="58" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3171,7 +3174,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView zoomScale="104" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3186,16 +3189,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="35" t="s">
+      <c r="C1" s="76"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="37"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="74"/>
     </row>
     <row r="2" spans="1:7" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -3235,35 +3238,35 @@
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="55" t="s">
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
     </row>
     <row r="5" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="57" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3271,22 +3274,22 @@
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="65" t="s">
+      <c r="E6" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="65" t="s">
+      <c r="F6" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="65" t="s">
+      <c r="G6" s="57" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3294,22 +3297,22 @@
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="65" t="s">
+      <c r="E7" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="65" t="s">
+      <c r="F7" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="65" t="s">
+      <c r="G7" s="57" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3317,101 +3320,101 @@
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
     </row>
     <row r="9" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
     </row>
     <row r="10" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
     </row>
     <row r="11" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
     </row>
     <row r="12" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
     </row>
     <row r="13" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
     </row>
     <row r="14" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -3447,12 +3450,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
     </row>
     <row r="2" spans="1:8" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -3478,43 +3481,43 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="43" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="52"/>
+      <c r="F3" s="44"/>
     </row>
     <row r="4" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="43" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="54"/>
+      <c r="F4" s="46"/>
     </row>
     <row r="5" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="54"/>
+      <c r="F5" s="46"/>
       <c r="G5" s="23"/>
       <c r="H5" s="23"/>
     </row>
@@ -3522,19 +3525,19 @@
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="42" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3542,19 +3545,19 @@
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="42" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3562,19 +3565,19 @@
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="42" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3582,87 +3585,87 @@
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="53"/>
-      <c r="F9" s="54"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="46"/>
     </row>
     <row r="10" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="54"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="46"/>
     </row>
     <row r="11" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="56" t="s">
+      <c r="E11" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="54"/>
+      <c r="F11" s="46"/>
     </row>
     <row r="12" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="56" t="s">
+      <c r="E12" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="54"/>
+      <c r="F12" s="46"/>
     </row>
     <row r="13" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="56" t="s">
+      <c r="E13" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="57"/>
+      <c r="F13" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3681,8 +3684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3695,17 +3698,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="35" t="s">
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="37"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="74"/>
     </row>
     <row r="2" spans="1:9" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -3734,40 +3737,40 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44" t="s">
+      <c r="E4" s="36"/>
+      <c r="F4" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="H4" s="36" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3775,23 +3778,23 @@
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="43" t="s">
+      <c r="E5" s="36"/>
+      <c r="F5" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="43" t="s">
+      <c r="H5" s="35" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3799,21 +3802,21 @@
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="59" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="43" t="s">
+      <c r="E6" s="36"/>
+      <c r="F6" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="35" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3821,23 +3824,23 @@
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="59" t="s">
+      <c r="B7" s="36"/>
+      <c r="C7" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="60" t="s">
+      <c r="E7" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="60" t="s">
+      <c r="G7" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="60" t="s">
+      <c r="H7" s="52" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3845,23 +3848,23 @@
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="59" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="60" t="s">
+      <c r="E8" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="60" t="s">
+      <c r="G8" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="60" t="s">
+      <c r="H8" s="52" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3869,28 +3872,28 @@
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="D9" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="E9" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="60" t="s">
+      <c r="F9" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="60" t="s">
+      <c r="G9" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="60" t="s">
+      <c r="H9" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="76" t="s">
+      <c r="I9" s="68" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3898,69 +3901,69 @@
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="D10" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
     </row>
     <row r="11" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="75" t="s">
+      <c r="B11" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="D11" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="49" t="s">
+      <c r="E11" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
     </row>
     <row r="12" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="49" t="s">
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
     </row>
     <row r="13" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="49" t="s">
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
     </row>
     <row r="14" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
@@ -3969,7 +3972,7 @@
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="73"/>
+      <c r="E14" s="65"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>

--- a/_content/training/2024/trainingsuren-2024-2025.xlsx
+++ b/_content/training/2024/trainingsuren-2024-2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan Coenen\Documents\Stefan\Documents\Basket\Basket 2024-2025\trainingsuren 2425\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\basket\lummen\_content\training\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60658DE8-CEAF-436D-A39F-ADA5F7318860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E161F29-C665-45CD-B26E-68C4A8701666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="29010" windowHeight="23385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Maandag" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="60">
   <si>
     <t>Maandag</t>
   </si>
@@ -201,15 +201,15 @@
   </si>
   <si>
     <t>tot 19u45</t>
+  </si>
+  <si>
+    <t>M14A/B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="hh:mm"/>
-  </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -787,7 +787,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -883,9 +883,6 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1018,7 +1015,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="37">
     <dxf>
@@ -1177,7 +1174,7 @@
         <name val="Verdana"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="hh:mm"/>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1427,7 +1424,7 @@
         <name val="Verdana"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="hh:mm"/>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1632,7 +1629,7 @@
         <name val="Verdana"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="hh:mm"/>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1837,7 +1834,7 @@
         <name val="Verdana"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="hh:mm"/>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2218,7 +2215,7 @@
         <name val="Verdana"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="hh:mm"/>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2654,32 +2651,32 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="70" t="s">
+    <row r="1" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="72" t="s">
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="73"/>
-      <c r="H1" s="74"/>
-    </row>
-    <row r="2" spans="1:13" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G1" s="72"/>
+      <c r="H1" s="73"/>
+    </row>
+    <row r="2" spans="1:13" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2705,22 +2702,22 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="64" t="s">
+      <c r="E3" s="63" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="59"/>
+      <c r="H3" s="58"/>
       <c r="M3" s="18"/>
     </row>
-    <row r="4" spans="1:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2732,119 +2729,119 @@
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="59"/>
+      <c r="H4" s="58"/>
       <c r="M4" s="19"/>
     </row>
-    <row r="5" spans="1:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="35" t="s">
+      <c r="B5" s="59"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="34" t="s">
         <v>40</v>
       </c>
       <c r="M5" s="19"/>
     </row>
-    <row r="6" spans="1:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="54" t="s">
+      <c r="B6" s="59"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="34" t="s">
         <v>40</v>
       </c>
       <c r="M6" s="19"/>
     </row>
-    <row r="7" spans="1:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="34" t="s">
         <v>40</v>
       </c>
       <c r="M7" s="19"/>
     </row>
-    <row r="8" spans="1:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="54" t="s">
+      <c r="E8" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
       <c r="M8" s="19"/>
     </row>
-    <row r="9" spans="1:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
       <c r="M9" s="18"/>
     </row>
-    <row r="10" spans="1:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2857,7 +2854,7 @@
       <c r="H10" s="5"/>
       <c r="M10" s="19"/>
     </row>
-    <row r="11" spans="1:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -2870,7 +2867,7 @@
       <c r="H11" s="3"/>
       <c r="M11" s="19"/>
     </row>
-    <row r="12" spans="1:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -2883,7 +2880,7 @@
       <c r="H12" s="3"/>
       <c r="M12" s="19"/>
     </row>
-    <row r="13" spans="1:13" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -2896,71 +2893,71 @@
       <c r="H13" s="14"/>
       <c r="M13" s="19"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M14" s="19"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M15" s="19"/>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M16" s="18"/>
     </row>
-    <row r="17" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M17" s="19"/>
     </row>
-    <row r="18" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M18" s="19"/>
     </row>
-    <row r="19" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M19" s="19"/>
     </row>
-    <row r="20" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M20" s="19"/>
     </row>
-    <row r="21" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M21" s="18"/>
     </row>
-    <row r="22" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M22" s="19"/>
     </row>
-    <row r="23" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M23" s="19"/>
     </row>
-    <row r="24" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M24" s="20"/>
     </row>
-    <row r="25" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M25" s="19"/>
     </row>
-    <row r="26" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M26" s="19"/>
     </row>
-    <row r="27" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M27" s="19"/>
     </row>
-    <row r="28" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M28" s="18"/>
     </row>
-    <row r="29" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M29" s="19"/>
     </row>
-    <row r="30" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M30" s="19"/>
     </row>
-    <row r="31" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M31" s="19"/>
     </row>
-    <row r="32" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:E1"/>
@@ -2979,26 +2976,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="75" t="s">
+    <row r="1" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-    </row>
-    <row r="2" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+    </row>
+    <row r="2" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -3012,7 +3009,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
@@ -3020,139 +3017,137 @@
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-    </row>
-    <row r="5" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="34" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="34" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="66" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="54" t="s">
+      <c r="B10" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="53" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="57" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="57" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="58" t="s">
+      <c r="C13" s="53"/>
+      <c r="D13" s="57" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3177,30 +3172,30 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="75" t="s">
+    <row r="1" spans="1:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="72" t="s">
+      <c r="C1" s="75"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="73"/>
-      <c r="G1" s="74"/>
-    </row>
-    <row r="2" spans="1:7" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F1" s="72"/>
+      <c r="G1" s="73"/>
+    </row>
+    <row r="2" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -3223,7 +3218,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3234,189 +3229,189 @@
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
     </row>
-    <row r="4" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="47" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-    </row>
-    <row r="5" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+    </row>
+    <row r="5" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="56" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="57" t="s">
+      <c r="E6" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="57" t="s">
+      <c r="F6" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="57" t="s">
+      <c r="G6" s="56" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="57" t="s">
+      <c r="E7" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="57" t="s">
+      <c r="F7" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="57" t="s">
+      <c r="G7" s="56" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-    </row>
-    <row r="9" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+    </row>
+    <row r="9" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-    </row>
-    <row r="10" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+    </row>
+    <row r="10" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-    </row>
-    <row r="11" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+    </row>
+    <row r="11" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-    </row>
-    <row r="12" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+    </row>
+    <row r="12" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-    </row>
-    <row r="13" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+    </row>
+    <row r="13" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-    </row>
-    <row r="14" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+    </row>
+    <row r="14" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:D1"/>
@@ -3439,25 +3434,25 @@
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="70" t="s">
+    <row r="1" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-    </row>
-    <row r="2" spans="1:8" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+    </row>
+    <row r="2" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -3477,195 +3472,195 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="35" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="44"/>
-    </row>
-    <row r="4" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="43"/>
+    </row>
+    <row r="4" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="35" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="46"/>
-    </row>
-    <row r="5" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="45"/>
+    </row>
+    <row r="5" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="46"/>
+      <c r="F5" s="45"/>
       <c r="G5" s="23"/>
       <c r="H5" s="23"/>
     </row>
-    <row r="6" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="41" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="41" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="41" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="46"/>
-    </row>
-    <row r="10" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="44"/>
+      <c r="F9" s="45"/>
+    </row>
+    <row r="10" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="45"/>
-      <c r="F10" s="46"/>
-    </row>
-    <row r="11" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="44"/>
+      <c r="F10" s="45"/>
+    </row>
+    <row r="11" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="48" t="s">
+      <c r="E11" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="46"/>
-    </row>
-    <row r="12" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="45"/>
+    </row>
+    <row r="12" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="46"/>
-    </row>
-    <row r="13" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="45"/>
+    </row>
+    <row r="13" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="48" t="s">
+      <c r="E13" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="49"/>
+      <c r="F13" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3684,33 +3679,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="75" t="s">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="72" t="s">
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="73"/>
-      <c r="H1" s="74"/>
-    </row>
-    <row r="2" spans="1:9" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G1" s="72"/>
+      <c r="H1" s="73"/>
+    </row>
+    <row r="2" spans="1:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -3736,248 +3731,248 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+    <row r="3" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-    </row>
-    <row r="4" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+    </row>
+    <row r="4" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36" t="s">
+      <c r="E4" s="35"/>
+      <c r="F4" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="35" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="35" t="s">
+      <c r="E5" s="35"/>
+      <c r="F5" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="34" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="51" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="35" t="s">
+      <c r="E6" s="35"/>
+      <c r="F6" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="34" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="51" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="H7" s="51" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="51" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="52" t="s">
+      <c r="F8" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="52" t="s">
+      <c r="G8" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="52" t="s">
+      <c r="H8" s="51" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="52" t="s">
+      <c r="F9" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="52" t="s">
+      <c r="G9" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="52" t="s">
+      <c r="H9" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="68" t="s">
+      <c r="I9" s="67" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-    </row>
-    <row r="11" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+    </row>
+    <row r="11" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-    </row>
-    <row r="12" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+    </row>
+    <row r="12" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="41" t="s">
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-    </row>
-    <row r="13" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+    </row>
+    <row r="13" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="41" t="s">
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-    </row>
-    <row r="14" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+    </row>
+    <row r="14" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="65"/>
+      <c r="E14" s="64"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -3986,7 +3981,7 @@
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="E16" s="17"/>
@@ -3994,7 +3989,7 @@
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>

--- a/_content/training/2024/trainingsuren-2024-2025.xlsx
+++ b/_content/training/2024/trainingsuren-2024-2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\basket\lummen\_content\training\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E161F29-C665-45CD-B26E-68C4A8701666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3B00A1-6A7E-40E3-92D4-C5B15C6589A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="29010" windowHeight="23385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="29010" windowHeight="23385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Maandag" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="60">
   <si>
     <t>Maandag</t>
   </si>
@@ -2976,8 +2976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3168,8 +3168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView zoomScale="104" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3261,9 +3261,7 @@
       <c r="F5" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="56" t="s">
-        <v>54</v>
-      </c>
+      <c r="G5" s="56"/>
     </row>
     <row r="6" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
